--- a/medicine/Enfance/Dave_Warner/Dave_Warner.xlsx
+++ b/medicine/Enfance/Dave_Warner/Dave_Warner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dave Warner, né en 1953 à Bicton, Western Australia (en) dans l'Australie-Occidentale, en Australie, est un écrivain, un musicien et un scénariste australien, auteur de roman policier.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dave Warner fait des études au Aquinas College, Perth (en)[1] puis à l'université d'Australie-Occidentale où il a se spécialise en psychologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dave Warner fait des études au Aquinas College, Perth (en) puis à l'université d'Australie-Occidentale où il a se spécialise en psychologie.
 En 1973, il forme un groupe de punk rock, Pus. Puis en janvier 1977, il constitue un second groupe, From the Suburbs avec lequel il sortira dix albums. Après This is Your Planet, sorti en 1996, il se consacre principalement à l'écriture. Après une revue The Sensational Sixties, il écrit et joue en 1985 dans une comédie musicale, The Sixties and All That Pop.
 Depuis 1997, il écrit de nombreux scénarios pour des séries télévisées (Packed to the Rafters, Rescue : Unité Spéciale, INXS: Never Tear Us Apart (en),...), des téléfilms (Balmain Boys,...) ou pour le cinéma (Cut, Garage Days, Ravenswood).
 En 1995, il publie son premier roman, City of Light avec lequel il est lauréat du Western Australian Premier's Book Awards (en) 1996 du meilleur premier roman. En 1998, avec Murder in the Groove, il commence une série consacrée à Andrew “Lizard” Zirk, une ancienne rock star devenue détective privé en Australie. En 2015, il fait paraître Before It Breaks avec lequel il remporte le prix Ned Kelly 2016 du meilleur roman.
@@ -548,30 +562,184 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Andrew “Lizard” Zirk
-Murder in the Groove (1998)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Andrew “Lizard” Zirk</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Murder in the Groove (1998)
 Murder in the Frame (1999)
-Murder in the Off-Season (2000)
-Autres romans
-City of Light (1995)
+Murder in the Off-Season (2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>City of Light (1995)
 Big Bad Blood (1997)
 Exxxpresso: Too Much Coffee Can Kill (2000)
 Before It Breaks (en) (2015)
-Clear to the Horizon (2017)
-Littérature d'enfance et de jeunesse
-Série Charlotte and the Starlet
-Charlotte and the Starlet (2009)
+Clear to the Horizon (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Charlotte and the Starlet</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Charlotte and the Starlet (2009)
 A Friend in Need (2008)
-Hooray for Hollywood (2010)
-Autres ouvrages
-Footy's Hall of Shame (1996)
+Hooray for Hollywood (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Footy's Hall of Shame (1996)
 25 Years of Mushroom Records (1998)
 Cricket's Hall of Shame (1998)
-Horseracing's Hall of Shame (1999)
-Discographie
-Albums
-Mugs Game (1978)
+Horseracing's Hall of Shame (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mugs Game (1978)
 Free Kicks (1979)
 Correct Weight (1979)
 This is My Planet (1981)
@@ -580,15 +748,91 @@
 Surplus &amp; Death (1995)
 This is Your Planet (1996)
 Live at the Raffles Hotel (1998)
-Suburbs in the '70s (1999)
-EPs
-Meanwhile in the Suburbs Musicland (1987)
+Suburbs in the '70s (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>EPs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Meanwhile in the Suburbs Musicland (1987)
 Loose Men, Tight Shorts (1996)
 Swans Songs (1998)
 Bulldogs Howl (1998)
-Saints on the March (1998)
-Singles
-Suburban Boy (1976)
+Saints on the March (1998)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Singles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Suburban Boy (1976)
 Summer '78" (1977)
 Suburban Boy (1978)
 Nothing To Lose (1979)
@@ -597,10 +841,47 @@
 Kookaburra Girl (1980)
 Half Time at the Football (1981)
 Key to the City (1989)
-East Fremantle is Football (1997)
-Filmographie
-Scénarios pour la télévision
-1997-1999 : Big Sky, série télévisée australienne
+East Fremantle is Football (1997)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Scénarios pour la télévision</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1997-1999 : Big Sky, série télévisée australienne
 2003 : Balmain Boys, téléfilm australien réalisé par Ray Quint
 2004 : Roll, téléfilm australien réalisé par Martin Wilson
 2001-2006 : 14 épisodes de la série télévisée australienne McLeod's Daughters
@@ -609,47 +890,124 @@
 2008-2009 : 4 épisodes de la série télévisée australienne Packed to the Rafters
 2009-2011 : 23 épisodes de la série télévisée australienne Rescue : Unité Spéciale
 2011 : 2 épisodes de la série télévisée australienne Wild Boys (en)
-2014 : 2 épisodes de la mini-série télévisée australienne INXS: Never Tear Us Apart (en)
-Scénarios pour le cinéma
-2000 : Cut, film d'horreur australien réalisé par Kimble Rendall
+2014 : 2 épisodes de la mini-série télévisée australienne INXS: Never Tear Us Apart (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Scénarios pour le cinéma</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2000 : Cut, film d'horreur australien réalisé par Kimble Rendall
 2002 : Garage Days, comédie musicale australienne réalisée par Alex Proyas
 2008 : Ravenswood, film thriller australien réalisé par David Denneen</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dave_Warner</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Western Australian Premier's Book Awards (en) 1996 du meilleur premier roman pour City of Light[2]
-Prix Ned Kelly 2016 du meilleur roman pour Before It Breaks[3]
-Nominations
-Prix Ned Kelly 2000 du meilleur roman pour Murder in the Frame[3]
-Prix Ned Kelly 2000 du meilleur roman pour Exxxpresso: Too Much Coffee Can Kill[3]
-Prix Ned Kelly 2020 du meilleur roman pour River of Salt[3]</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Western Australian Premier's Book Awards (en) 1996 du meilleur premier roman pour City of Light
+Prix Ned Kelly 2016 du meilleur roman pour Before It Breaks</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dave_Warner</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dave_Warner</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Prix Ned Kelly 2000 du meilleur roman pour Murder in the Frame
+Prix Ned Kelly 2000 du meilleur roman pour Exxxpresso: Too Much Coffee Can Kill
+Prix Ned Kelly 2020 du meilleur roman pour River of Salt</t>
         </is>
       </c>
     </row>
